--- a/public/DataImport/brisol dikit.xlsx
+++ b/public/DataImport/brisol dikit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\data tdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9CEEC-0C2F-480F-9361-FCE8C7DED0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED619EC8-FD0B-4F87-96BE-A313572146C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27A290FD-8364-4E69-84D1-E96A2028FDA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="266">
   <si>
     <t>Incident Number</t>
   </si>
@@ -1060,6 +1060,9 @@
   <si>
     <t>Mohon pastikan company code yang dimasukan A001 dan business place 4 digit.
 Apabila masih error mohon dapat di screen shoot dan kirimkan kepada kami.</t>
+  </si>
+  <si>
+    <t>INC000001055581</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E066ADD-D8AB-4C46-BC64-7307CA924EA0}">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4548,6 +4551,89 @@
         <v>44929.367245370369</v>
       </c>
     </row>
+    <row r="38" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44928.641284722224</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R38" s="4">
+        <v>44929.367164351854</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>44929.367245370369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
